--- a/Vpc-TGW/TGW-RT-Understanding.xlsx
+++ b/Vpc-TGW/TGW-RT-Understanding.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{025E4856-5BA0-4E04-A1D2-AEAECB335FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C66D491-59CC-42FE-BCEB-13BBE1BC8304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TGWRT" sheetId="1" r:id="rId1"/>
+    <sheet name="GWLBENP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>TGWRouteTable-for-SFDC</t>
   </si>
@@ -143,28 +144,73 @@
     <t>59.160.52.5/32 - VPN</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspection-Egress Zscaler RT </t>
+    <t xml:space="preserve">Inspection-Egress Zscaler Subnet RT </t>
   </si>
   <si>
     <t>0.0.0.0/0 Transit gatway</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspection-Egress Natgw RT </t>
+    <t>Natgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection-Egress Natgw Subnet RT </t>
+  </si>
+  <si>
+    <t>vpn(onpremise) firewall should be updated - &gt; AWS (security group must be updated) FOR ex. EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPC ( security group must be updated) -&gt; VPC ( security group must be updated) FOR ex.  EC2 </t>
   </si>
   <si>
     <t>GWLB Endpoint</t>
   </si>
   <si>
+    <t>tgw attachment -&gt; zscaler -&gt; Natgw-&gt; IGW</t>
+  </si>
+  <si>
     <t>IGW</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspection-Egress TGW subnet RT </t>
+    <t xml:space="preserve">Inspection-Egress TGW ATTACHMENT  subnet RT </t>
   </si>
   <si>
     <t xml:space="preserve">SFDC WEB/APP subnet RT </t>
   </si>
   <si>
     <t xml:space="preserve">TWS WEB/APP subnet RT </t>
+  </si>
+  <si>
+    <t>Spoke Account LB SUBNET RT -1</t>
+  </si>
+  <si>
+    <t>Important:
+1. Assuming GWLB is already created by Firewalls.
+2. Create a Endpoint service for that GWLB and share it(without acceptance required) with all the Spoke Accounts.
+3. Create a IGW in Spoke Account.
+4. Create GWLBENP inside the Spoke Account for that Firewalls GWLB.
+4. Inside the spoke account go to VPC Main Route table and do Edge Association with the Internet gateway.
+5. Do the required changes mentioned in here.</t>
+  </si>
+  <si>
+    <t>GWLB Endpoint-1</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Spoke Account LB SUBNET RT -2</t>
+  </si>
+  <si>
+    <t>GWLB Endpoint-2</t>
+  </si>
+  <si>
+    <t>Spoke Account GWLBENP SUBNET RT -1</t>
+  </si>
+  <si>
+    <t>Spoke Account GWLBENP SUBNET RT -2</t>
   </si>
 </sst>
 </file>
@@ -368,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -386,17 +432,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -409,6 +455,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B42" sqref="A38:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,7 +795,7 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -759,7 +809,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -769,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -781,7 +831,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -793,7 +843,7 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
@@ -805,7 +855,7 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -817,13 +867,13 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="E8" s="10"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="E9" s="10"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="14" t="s">
@@ -831,7 +881,7 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
@@ -843,7 +893,7 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -853,7 +903,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -865,7 +915,7 @@
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -877,7 +927,7 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -889,13 +939,13 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="E16" s="10"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
@@ -903,7 +953,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
@@ -1008,7 +1058,7 @@
       </c>
       <c r="B32" s="13"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
@@ -1024,125 +1074,142 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="B42" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="11" t="s">
+      <c r="B46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="12"/>
-    </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="E1:E18"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A18:C18"/>
@@ -1151,4 +1218,177 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE55BF-C098-4795-B30E-46A1B4381B00}">
+  <dimension ref="A4:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E4:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vpc-TGW/TGW-RT-Understanding.xlsx
+++ b/Vpc-TGW/TGW-RT-Understanding.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C66D491-59CC-42FE-BCEB-13BBE1BC8304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCCA8AA9-8093-4131-A338-C4508CE5018F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGWRT" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>TGWRouteTable-for-SFDC</t>
   </si>
@@ -180,7 +180,10 @@
     <t xml:space="preserve">TWS WEB/APP subnet RT </t>
   </si>
   <si>
-    <t>Spoke Account LB SUBNET RT -1</t>
+    <t>Spoke Account MAIN RT -1</t>
+  </si>
+  <si>
+    <t>AND Edge Association with IGW</t>
   </si>
   <si>
     <t>Important:
@@ -188,23 +191,32 @@
 2. Create a Endpoint service for that GWLB and share it(without acceptance required) with all the Spoke Accounts.
 3. Create a IGW in Spoke Account.
 4. Create GWLBENP inside the Spoke Account for that Firewalls GWLB.
-4. Inside the spoke account go to VPC Main Route table and do Edge Association with the Internet gateway.
+4. Inside the spoke account go to VPC Main Route table and add routes for the GWLENP Subnets and do Edge Association with the Internet gateway.
 5. Do the required changes mentioned in here.</t>
   </si>
   <si>
+    <t>LB Subnet CIDR - 1</t>
+  </si>
+  <si>
     <t>GWLB Endpoint-1</t>
   </si>
   <si>
+    <t>LB Subnet CIDR - 2</t>
+  </si>
+  <si>
+    <t>GWLB Endpoint-2</t>
+  </si>
+  <si>
     <t>Local</t>
   </si>
   <si>
     <t>Route</t>
   </si>
   <si>
+    <t>Spoke Account LB SUBNET RT -1</t>
+  </si>
+  <si>
     <t>Spoke Account LB SUBNET RT -2</t>
-  </si>
-  <si>
-    <t>GWLB Endpoint-2</t>
   </si>
   <si>
     <t>Spoke Account GWLBENP SUBNET RT -1</t>
@@ -414,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,7 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -776,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B42" sqref="A38:B42"/>
     </sheetView>
   </sheetViews>
@@ -1222,172 +1233,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE55BF-C098-4795-B30E-46A1B4381B00}">
-  <dimension ref="A4:E24"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>40</v>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E4:E19"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E2:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vpc-TGW/TGW-RT-Understanding.xlsx
+++ b/Vpc-TGW/TGW-RT-Understanding.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCCA8AA9-8093-4131-A338-C4508CE5018F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F54CEB6-62DA-4FF1-A9CF-6A333D73B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGWRT" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>TGWRouteTable-for-SFDC</t>
   </si>
@@ -186,13 +189,14 @@
     <t>AND Edge Association with IGW</t>
   </si>
   <si>
-    <t>Important:
+    <t xml:space="preserve">Important:
 1. Assuming GWLB is already created by Firewalls.
 2. Create a Endpoint service for that GWLB and share it(without acceptance required) with all the Spoke Accounts.
 3. Create a IGW in Spoke Account.
 4. Create GWLBENP inside the Spoke Account for that Firewalls GWLB.
 4. Inside the spoke account go to VPC Main Route table and add routes for the GWLENP Subnets and do Edge Association with the Internet gateway.
-5. Do the required changes mentioned in here.</t>
+5. Do the required changes mentioned in here.
+6. IF Traffic is coming from different account or VPN, just add the Account CIDR in destination and Transit gateway as a target. this subnet will send the traffic to transit gateway for further routing for return route. </t>
   </si>
   <si>
     <t>LB Subnet CIDR - 1</t>
@@ -213,10 +217,19 @@
     <t>Route</t>
   </si>
   <si>
-    <t>Spoke Account LB SUBNET RT -1</t>
-  </si>
-  <si>
-    <t>Spoke Account LB SUBNET RT -2</t>
+    <t>Spoke Account LB SUBNET RT -1 - Public</t>
+  </si>
+  <si>
+    <t>Account-1 CIDR</t>
+  </si>
+  <si>
+    <t>Transit Gateway</t>
+  </si>
+  <si>
+    <t>VPN CIDR</t>
+  </si>
+  <si>
+    <t>Spoke Account LB SUBNET RT -2 - Public</t>
   </si>
   <si>
     <t>Spoke Account GWLBENP SUBNET RT -1</t>
@@ -426,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,6 +457,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,6 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B42" sqref="A38:B42"/>
     </sheetView>
   </sheetViews>
@@ -801,12 +818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -820,7 +837,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -830,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -842,7 +859,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -854,7 +871,7 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
@@ -866,7 +883,7 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -878,21 +895,21 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="E8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="E9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
@@ -904,7 +921,7 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -914,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -926,7 +943,7 @@
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -938,7 +955,7 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -950,21 +967,21 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="E16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="E17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
@@ -1014,11 +1031,11 @@
       <c r="C23" s="1"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
@@ -1064,10 +1081,10 @@
       <c r="A30" s="6"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
@@ -1102,10 +1119,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="11"/>
       <c r="E38" t="s">
         <v>28</v>
       </c>
@@ -1149,10 +1166,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
@@ -1171,10 +1188,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
@@ -1193,10 +1210,10 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="10"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
@@ -1233,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE55BF-C098-4795-B30E-46A1B4381B00}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -1246,14 +1263,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1264,7 +1281,7 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
@@ -1273,7 +1290,7 @@
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
@@ -1282,7 +1299,7 @@
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
@@ -1291,17 +1308,17 @@
       <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="E7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="11"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
@@ -1310,7 +1327,7 @@
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
@@ -1319,125 +1336,157 @@
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="E12" s="17"/>
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="E13" s="17"/>
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="B24" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E2:E18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vpc-TGW/TGW-RT-Understanding.xlsx
+++ b/Vpc-TGW/TGW-RT-Understanding.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27311"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F54CEB6-62DA-4FF1-A9CF-6A333D73B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92C9351-C101-4DC7-8DB9-DE9B74E4D5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGWRT" sheetId="1" r:id="rId1"/>
     <sheet name="GWLBENP" sheetId="2" r:id="rId2"/>
+    <sheet name="TGW Attach-Peering (2-region)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
   <si>
     <t>TGWRouteTable-for-SFDC</t>
   </si>
@@ -237,12 +238,77 @@
   <si>
     <t>Spoke Account GWLBENP SUBNET RT -2</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Points we are expecting you are done with:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Two Transit Gateway are already created and working. 
+2. We are Expecting the Transit gateway peering attachment is already done.</t>
+    </r>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>HYDERABAD</t>
+  </si>
+  <si>
+    <t>TGWRouteTableAttachmentPerring for Mumbai Region</t>
+  </si>
+  <si>
+    <t>TGWRouteTableAttachmentPerring for Hyderabad Region</t>
+  </si>
+  <si>
+    <t>Peering Attachment</t>
+  </si>
+  <si>
+    <t>Mumbai Prod Account VPC CIDR</t>
+  </si>
+  <si>
+    <t>Mumbai Prod Account VPC Attachment</t>
+  </si>
+  <si>
+    <t>Hyderabad Prod Account VPC CIDR</t>
+  </si>
+  <si>
+    <t>Hyderabad Prod Account VPC Attachment</t>
+  </si>
+  <si>
+    <t>TGWRouteTable-Prod for Mumbai Region</t>
+  </si>
+  <si>
+    <t>TGWRouteTable-Prod for Hyderabad Region</t>
+  </si>
+  <si>
+    <t>MUMBAI Prod VPC Attachment</t>
+  </si>
+  <si>
+    <t>HYDERABAD Prod VPC Attachment</t>
+  </si>
+  <si>
+    <t>MUMBAI Prod Account VPC CIDR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +342,29 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -435,11 +528,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,6 +590,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,7 +634,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B42" sqref="A38:B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,12 +988,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -837,7 +1007,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -847,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -859,7 +1029,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -871,7 +1041,7 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
@@ -883,7 +1053,7 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -895,21 +1065,21 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="E8" s="13"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="E9" s="13"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
@@ -921,7 +1091,7 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -931,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -943,7 +1113,7 @@
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -955,7 +1125,7 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -967,21 +1137,21 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="E16" s="13"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="E17" s="13"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
@@ -1031,11 +1201,11 @@
       <c r="C23" s="1"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
@@ -1081,10 +1251,10 @@
       <c r="A30" s="6"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
@@ -1119,10 +1289,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="18"/>
       <c r="E38" t="s">
         <v>28</v>
       </c>
@@ -1166,10 +1336,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="18"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
@@ -1188,10 +1358,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
@@ -1210,10 +1380,10 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="18"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
@@ -1250,182 +1420,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE55BF-C098-4795-B30E-46A1B4381B00}">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="71" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="18"/>
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="18"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="18"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -1449,13 +1619,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -1481,12 +1651,251 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E2:E18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D2:D18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B184CA78-3E23-4780-AE1C-AEF66C59E0DD}">
+  <dimension ref="A2:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="30.75">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30.75">
+      <c r="A17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.75">
+      <c r="A18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
